--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,36 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21820" windowHeight="12440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+  <si>
+    <t>Link1</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_01%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_02%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_03%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_04%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_05%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_06%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_07%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_08%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_10%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_11%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_12%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_13%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_14%20copy.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/EX231027_15%20copy.jpg</t>
+  </si>
+  <si>
+    <t>link2</t>
+  </si>
+  <si>
+    <t>https://github.com/Smith0988/sticker_image/blob/main/Made%20in%20USA.jpg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,87 +107,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,129 +387,174 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="93" customWidth="1"/>
+    <col min="2" max="2" width="73.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>value1</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>value2</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>value1</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>value3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>value1</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>value2</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>value1</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>value3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>value1</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>value2</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>value1</t>
-        </is>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>value3</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A11" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A6" r:id="rId11"/>
+    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="A4" r:id="rId13"/>
+    <hyperlink ref="A3" r:id="rId14"/>
+    <hyperlink ref="A2" r:id="rId15"/>
+    <hyperlink ref="B2" r:id="rId16"/>
+    <hyperlink ref="B3:B16" r:id="rId17" display="https://github.com/Smith0988/sticker_image/blob/main/Made%20in%20USA.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>